--- a/tasks/AnalyticalCase/output/StdDevEmployeeHours.xlsx
+++ b/tasks/AnalyticalCase/output/StdDevEmployeeHours.xlsx
@@ -80,24 +80,24 @@
     <t>PRJ152</t>
   </si>
   <si>
+    <t>PRJ188</t>
+  </si>
+  <si>
     <t>PRJ100</t>
   </si>
   <si>
-    <t>PRJ188</t>
-  </si>
-  <si>
     <t>PRJ187</t>
   </si>
   <si>
     <t>PRJ102</t>
   </si>
   <si>
+    <t>PRJ189</t>
+  </si>
+  <si>
     <t>PRJ101</t>
   </si>
   <si>
-    <t>PRJ189</t>
-  </si>
-  <si>
     <t>PRJ104</t>
   </si>
   <si>
@@ -197,16 +197,16 @@
     <t>PRJ129</t>
   </si>
   <si>
+    <t>PRJ111</t>
+  </si>
+  <si>
     <t>PRJ199</t>
   </si>
   <si>
-    <t>PRJ111</t>
+    <t>PRJ110</t>
   </si>
   <si>
     <t>PRJ198</t>
-  </si>
-  <si>
-    <t>PRJ110</t>
   </si>
   <si>
     <t>PRJ113</t>
@@ -365,8 +365,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="7.4140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.35546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="7.46484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="26.265625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -390,7 +390,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>4.693415600604746</v>
+        <v>4.693415600604745</v>
       </c>
     </row>
     <row r="4">
@@ -414,7 +414,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>1.2629999010292914</v>
+        <v>1.2629999010292916</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +430,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>3.326658316622788</v>
+        <v>3.326658316622787</v>
       </c>
     </row>
     <row r="9">
@@ -446,7 +446,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>3.1177636215723603</v>
+        <v>3.11776362157236</v>
       </c>
     </row>
     <row r="11">
@@ -478,7 +478,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>2.502947062963977</v>
+        <v>2.5029470629639774</v>
       </c>
     </row>
     <row r="15">
@@ -510,7 +510,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>3.572655035124438</v>
+        <v>3.5726550351244377</v>
       </c>
     </row>
     <row r="19">
@@ -542,7 +542,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>2.325353019794342</v>
+        <v>2.1775036675565493</v>
       </c>
     </row>
     <row r="23">
@@ -550,7 +550,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>2.1775036675565493</v>
+        <v>2.325353019794342</v>
       </c>
     </row>
     <row r="24">
@@ -566,7 +566,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>6.147565371754904</v>
+        <v>6.1475653717549035</v>
       </c>
     </row>
     <row r="26">
@@ -574,7 +574,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>3.086052494692856</v>
+        <v>2.842804249328469</v>
       </c>
     </row>
     <row r="27">
@@ -582,7 +582,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>2.842804249328469</v>
+        <v>3.086052494692856</v>
       </c>
     </row>
     <row r="28">
@@ -646,7 +646,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>3.1917832876866115</v>
+        <v>3.191783287686611</v>
       </c>
     </row>
     <row r="36">
@@ -702,7 +702,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="n" s="0">
-        <v>0.9239889369227073</v>
+        <v>0.9239889369227076</v>
       </c>
     </row>
     <row r="43">
@@ -854,7 +854,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="n" s="0">
-        <v>2.182266915134097</v>
+        <v>2.6547798402127434</v>
       </c>
     </row>
     <row r="62">
@@ -862,7 +862,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="n" s="0">
-        <v>2.6547798402127434</v>
+        <v>2.182266915134097</v>
       </c>
     </row>
     <row r="63">
@@ -870,7 +870,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="n" s="0">
-        <v>0.0</v>
+        <v>2.2196432145730087</v>
       </c>
     </row>
     <row r="64">
@@ -878,7 +878,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="n" s="0">
-        <v>2.2196432145730087</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="65">
@@ -894,7 +894,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="n" s="0">
-        <v>1.7865578325060982</v>
+        <v>1.7865578325060985</v>
       </c>
     </row>
     <row r="67">
@@ -910,7 +910,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="n" s="0">
-        <v>4.008492720323797</v>
+        <v>4.008492720323798</v>
       </c>
     </row>
     <row r="69">
@@ -958,7 +958,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="n" s="0">
-        <v>7.128937898141317</v>
+        <v>7.1289378981413165</v>
       </c>
     </row>
     <row r="75">
@@ -1046,7 +1046,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="n" s="0">
-        <v>1.231762964210241</v>
+        <v>1.2317629642102412</v>
       </c>
     </row>
     <row r="86">
@@ -1070,7 +1070,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="n" s="0">
-        <v>1.6022692241526297</v>
+        <v>1.6022692241526288</v>
       </c>
     </row>
     <row r="89">
@@ -1110,7 +1110,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="n" s="0">
-        <v>2.5491535850160147</v>
+        <v>2.549153585016015</v>
       </c>
     </row>
     <row r="94">
@@ -1126,7 +1126,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="n" s="0">
-        <v>2.930265015527519</v>
+        <v>2.9302650155275187</v>
       </c>
     </row>
     <row r="96">

--- a/tasks/AnalyticalCase/output/StdDevEmployeeHours.xlsx
+++ b/tasks/AnalyticalCase/output/StdDevEmployeeHours.xlsx
@@ -80,24 +80,24 @@
     <t>PRJ152</t>
   </si>
   <si>
+    <t>PRJ100</t>
+  </si>
+  <si>
     <t>PRJ188</t>
   </si>
   <si>
-    <t>PRJ100</t>
-  </si>
-  <si>
     <t>PRJ187</t>
   </si>
   <si>
     <t>PRJ102</t>
   </si>
   <si>
+    <t>PRJ101</t>
+  </si>
+  <si>
     <t>PRJ189</t>
   </si>
   <si>
-    <t>PRJ101</t>
-  </si>
-  <si>
     <t>PRJ104</t>
   </si>
   <si>
@@ -197,16 +197,16 @@
     <t>PRJ129</t>
   </si>
   <si>
+    <t>PRJ199</t>
+  </si>
+  <si>
     <t>PRJ111</t>
   </si>
   <si>
-    <t>PRJ199</t>
+    <t>PRJ198</t>
   </si>
   <si>
     <t>PRJ110</t>
-  </si>
-  <si>
-    <t>PRJ198</t>
   </si>
   <si>
     <t>PRJ113</t>
@@ -390,7 +390,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>4.693415600604745</v>
+        <v>4.693415600604746</v>
       </c>
     </row>
     <row r="4">
@@ -414,7 +414,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>1.2629999010292916</v>
+        <v>1.2629999010292914</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +430,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>3.326658316622787</v>
+        <v>3.326658316622788</v>
       </c>
     </row>
     <row r="9">
@@ -446,7 +446,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>3.11776362157236</v>
+        <v>3.1177636215723603</v>
       </c>
     </row>
     <row r="11">
@@ -478,7 +478,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>2.5029470629639774</v>
+        <v>2.502947062963977</v>
       </c>
     </row>
     <row r="15">
@@ -510,7 +510,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>3.5726550351244377</v>
+        <v>3.572655035124438</v>
       </c>
     </row>
     <row r="19">
@@ -542,7 +542,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>2.1775036675565493</v>
+        <v>2.325353019794342</v>
       </c>
     </row>
     <row r="23">
@@ -550,7 +550,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>2.325353019794342</v>
+        <v>2.1775036675565493</v>
       </c>
     </row>
     <row r="24">
@@ -566,7 +566,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>6.1475653717549035</v>
+        <v>6.147565371754904</v>
       </c>
     </row>
     <row r="26">
@@ -574,7 +574,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>2.842804249328469</v>
+        <v>3.086052494692856</v>
       </c>
     </row>
     <row r="27">
@@ -582,7 +582,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>3.086052494692856</v>
+        <v>2.842804249328469</v>
       </c>
     </row>
     <row r="28">
@@ -646,7 +646,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>3.191783287686611</v>
+        <v>3.1917832876866115</v>
       </c>
     </row>
     <row r="36">
@@ -702,7 +702,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="n" s="0">
-        <v>0.9239889369227076</v>
+        <v>0.9239889369227073</v>
       </c>
     </row>
     <row r="43">
@@ -854,7 +854,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="n" s="0">
-        <v>2.6547798402127434</v>
+        <v>2.182266915134097</v>
       </c>
     </row>
     <row r="62">
@@ -862,7 +862,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="n" s="0">
-        <v>2.182266915134097</v>
+        <v>2.6547798402127434</v>
       </c>
     </row>
     <row r="63">
@@ -870,7 +870,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="n" s="0">
-        <v>2.2196432145730087</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="64">
@@ -878,7 +878,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="n" s="0">
-        <v>0.0</v>
+        <v>2.2196432145730087</v>
       </c>
     </row>
     <row r="65">
@@ -894,7 +894,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="n" s="0">
-        <v>1.7865578325060985</v>
+        <v>1.7865578325060982</v>
       </c>
     </row>
     <row r="67">
@@ -910,7 +910,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="n" s="0">
-        <v>4.008492720323798</v>
+        <v>4.008492720323797</v>
       </c>
     </row>
     <row r="69">
@@ -958,7 +958,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="n" s="0">
-        <v>7.1289378981413165</v>
+        <v>7.128937898141317</v>
       </c>
     </row>
     <row r="75">
@@ -1046,7 +1046,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="n" s="0">
-        <v>1.2317629642102412</v>
+        <v>1.231762964210241</v>
       </c>
     </row>
     <row r="86">
@@ -1070,7 +1070,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="n" s="0">
-        <v>1.6022692241526288</v>
+        <v>1.6022692241526297</v>
       </c>
     </row>
     <row r="89">
@@ -1110,7 +1110,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="n" s="0">
-        <v>2.549153585016015</v>
+        <v>2.5491535850160147</v>
       </c>
     </row>
     <row r="94">
@@ -1126,7 +1126,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="n" s="0">
-        <v>2.9302650155275187</v>
+        <v>2.930265015527519</v>
       </c>
     </row>
     <row r="96">
